--- a/data/amazon_url_2_review_data.xlsx
+++ b/data/amazon_url_2_review_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,61 +436,87 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>User_Star_rating</t>
+          <t>productID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Review_content</t>
+          <t>prodSiteID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Reviewer_name</t>
+          <t>ReviewID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Review_title</t>
+          <t>review_header</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Helpful_votes</t>
+          <t>reviewer_name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Verified_purchase</t>
+          <t>review_content</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>review_star_rating</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>review_helpful_votes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>verified_purchase</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Great Quality!!!</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>jamesjessica21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>I purchased this product for my son because he really wanted a JBL Bluetooth speaker. He was so excited when we finally received it. He uses it to listen to music. He is so happy with his new JBL speaker. I love that it's a little bit smaller than the one my daughter has, but the sound quality is just as good. I also liked the price. Very high quality speaker. I would highly recommend.
 I will update review to rate battery life and waterproof quality.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>jamesjessica21</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Great Quality!!!</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -498,29 +524,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Awesome speaker worth every $$$</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Canyn</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>This speaker is rechargeable with type C usb and battery life is long. Has great sound. Nice looking and durable.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Canyn</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Awesome speaker worth every $$$</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -528,29 +565,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Very pleased!</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Gabe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>You won’t be disappointed with this speaker: long battery life, clear sound, impressive bass, and super portable. Would also make a great gift as they will be enjoying their tunes too!</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Gabe</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Very pleased!</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -558,29 +606,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Looks great sounds better</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>This is my third JBL flip speaker. The price is right and the sound is awesome. You can set this cool little speaker anywhere. I bring it all over my house and yard. Also great at the beach, we just set it on our cooler.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Looks great sounds better</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -588,29 +647,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JBL fan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Niki</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>I purchased this speaker for a gift for my son and by mistake I bought this one which was a bit smaller than I meant to, however for such a small speaker it has a nice sound and does the job for now. Good base for the music he listens to.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Niki</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>JBL fan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -618,60 +688,82 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Daughter loves it</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BCork</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>I bought this for my daughter and she loves it. It goes in the shower, the beach&amp; the pool! Beautiful turquoise color. Nice loud sound too!</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Great speaker quality</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jess</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>I like it came with a travel case, although I’ve yet to use it. Very portable.
 The sound quality is excellent for around the house and yard! Good balance and full bass.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Jess</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Great speaker quality</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Verified Purchase</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>I bought this for my daughter and she loves it. It goes in the shower, the beach&amp; the pool! Beautiful turquoise color. Nice loud sound too!</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BCork</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Daughter loves it</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -679,29 +771,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Battery life</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Jjjr</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>I have this on all day at work (about 9 hours) went 3 days without a charge, the sound is great, great speaker</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Jjjr</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Battery life</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -709,29 +812,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>It’s small the sound is great.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>I work in small business, can’t work without my music it’s small but does the job.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>It’s small the sound is great.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -739,29 +853,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>It’s small the sound is great.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>I work in small business, can’t work without my music it’s small but does the job.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>It’s small the sound is great.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -769,29 +894,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Used on a bike great sound</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Kathy Schneider</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Was a gift ge loved it</t>
+          <t>Buen equipo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Lisbeth Roa</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>I thought it would have more sound, and it gives the impression that only one side sounds, but I think that's how it comes and it's not that it's damaged. Arrived before the indicated date. I hope it lasts for a long time xD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -799,29 +935,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Plays music</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Jerry McDonald</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>This is everything I thought it would be and more what a great sound</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Jerry McDonald</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Plays music</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -829,29 +976,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I thought it would have more sound, and it gives the impression that only one side sounds, but I think that's how it comes and it's not that it's damaged. Arrived before the indicated date. I hope it lasts for a long time xD</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Lisbeth Roa</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Buen equipo</t>
+          <t>It makes noise</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Kim G.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>It makes noise real good. Not bad neither.</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -859,29 +1017,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>It makes noise real good. Not bad neither.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Kim G.</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>It makes noise</t>
+          <t>Was a gift ge loved it</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Kathy Schneider</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>Used on a bike great sound</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -889,29 +1058,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Very happy</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Real Journey</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>I purchased this for the Master En-suite because I love to listen to podcasts and music when I am getting ready in the morning. The Flip 5 is not as good as the Flip 6 with depth of sound but I don't need that in my current use. I love the size as it fits in the cabinet easy for storage when not in use.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Real Journey</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Very happy</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -919,29 +1099,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Great Speaker</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>cinamz</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Bass is great —loud and clear. Sounds like you’re in a car. It takes a while for it to die, which is good for people who like sleep with music playing in the background. I recommend :))</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>cinamz</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Great Speaker</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -949,29 +1140,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Great sound for the buck!</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>EZrider63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>I use this at work and can usually get through the entire day with tunes while sounding fantastic for its size.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>EZrider63</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Great sound for the buck!</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -979,29 +1181,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Product quality is currently performing as expected.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Jay B</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Product quality is currently performing as expected after 3 uses.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Jay B</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Product quality is currently performing as expected.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1009,29 +1222,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Nydia Meadows</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Love the brand and so happy I found it in his favorite color</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Nydia Meadows</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1039,29 +1263,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Second one I purchased.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Dan Hargrave</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>They work good!</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Dan Hargrave</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Second one I purchased.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1069,29 +1304,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Love the camo, sounds great</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Debra wobbe</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Camo is awesome</t>
+          <t>Its awesome!</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>brian felkel</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>Use it everywhere but bought as a speaker while riding 4wheelers and it never skips a beat!</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1099,29 +1345,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Amazing sound quality, super water resistant, good battery life</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Alex Qian</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>JBL Flips have been my go to speaker for some time now -- the audio quality is just unmatched. I play music in the shower, and also bring my speaker for pool parties and it's never had a problem. It's even been accidentally knocked into the pool before, and came out totally unaffected. I also don't have to charge it that often at all, maybe once every few weeks when regularly using it. Would definitely recommend!</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Alex Qian</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Amazing sound quality, super water resistant, good battery life</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1129,29 +1386,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Use it everywhere but bought as a speaker while riding 4wheelers and it never skips a beat!</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>brian felkel</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Its awesome!</t>
+          <t>Camo is awesome</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Debra wobbe</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>Love the camo, sounds great</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1159,29 +1427,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Jbl always great sound</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>sirtoke</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>Really love the big bass and crisp sound of my new flip 5... also pairs good with my jnl boombox 2 in party mode</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>sirtoke</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Jbl always great sound</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1189,29 +1468,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Very Good Sound</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Poopsilee</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>My granddaughter was delighted to receive this gift for Christmas. Now she has her own and doesn't have to borrow her sister's</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Poopsilee</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Very Good Sound</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1219,29 +1509,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sound Quality Rocks with much better Base than competition</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Michael R.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>When compared to the Rokform G-Rok, which I also purchased, the JBL blew the Roform away. Better Sound Quality and seems 35% Louder in Volume</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>4</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>When compared to the Rokform G-Rok, which I also purchased, the JBL blew the Roform away. Better Sound Quality and seems 35% Louder in Volume</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Michael R.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Sound Quality Rocks with much better Base than competition</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1249,29 +1550,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Jbl flip</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>Easy to connect and use. Best of all it has a truly strong sound</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Jbl flip</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>4 people found this helpful</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1279,29 +1591,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Awesome gift</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>T4Me334</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>I visited to see my gift working and it was beyond my expectations. Now I wish I had bought myself one. Treble and bass were both terrific with no adjustments needed. Extremely pleased with this purchase.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>T4Me334</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Awesome gift</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1309,29 +1632,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sounds excellent</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>That Guy in that thing.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>Clear and loud, impressive for its small size.</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>That Guy in that thing.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Sounds excellent</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1339,29 +1673,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Awesome speaker!</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>clairebear64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Bought this for my son and he uses it all the time! It’s small enough to carry around the house and to the garage and outside and has great sound.</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>clairebear64</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Awesome speaker!</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1369,29 +1714,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Boom, boom boom</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Robyn Almodovar</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>I was really impressed from buying this other Amazon that the sound quality was actually so substantial and did the job. I would definitely recommend this.</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>4</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>I was really impressed from buying this other Amazon that the sound quality was actually so substantial and did the job. I would definitely recommend this.</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Robyn Almodovar</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Boom, boom boom</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1399,29 +1755,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Jvc speaker</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Gary bandy</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>I already have one so I bought another to pair together I have had the first one for a year excellent speakers</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Gary bandy</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Jvc speaker</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1429,29 +1796,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>I have only used it a few times , but am very impressed. The sound quality is great, best Bluetooth speaker I have ever used!</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Johann Pond</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Worth the money</t>
+          <t>Great buy</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>passing time</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Great little speaker, loud enough to hear at work with the sound not all distorted.</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1459,29 +1837,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Great little speaker, loud enough to hear at work with the sound not all distorted.</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>passing time</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>34</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Great buy</t>
+          <t>Worth the money</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>Johann Pond</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I have only used it a few times , but am very impressed. The sound quality is great, best Bluetooth speaker I have ever used!</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1489,29 +1878,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>great sound</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Susan Campbell</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>I'm assuming it is water resistant, but I do not intend on listening to music under water. Other than that, it very nice, would purchase again.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Susan Campbell</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>great sound</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1519,29 +1919,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>JBL speaker!</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Clara James</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>Love it!</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Clara James</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>JBL speaker!</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1549,29 +1960,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>It’s great</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Judy white</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>I like that it’s wonderful</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>4</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>I like that it’s wonderful</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Judy white</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>It’s great</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1579,29 +2001,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Great sound!!!</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Desiree</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>Wonderful speaker, perfect and portable size. Loud with clear sound.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Desiree</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Great sound!!!</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1609,29 +2042,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Great quality.</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Pam D.</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>39</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Great Quality</t>
+          <t>Excellent product!</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Mick</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
+        <is>
+          <t>Sound is fantastic!</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1639,29 +2083,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sound is fantastic!</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Mick</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Excellent product!</t>
+          <t>Great Quality</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Pam D.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
+        <is>
+          <t>Great quality.</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>5</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1669,29 +2124,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Size and the quality</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>bassam s.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>Very good thanks</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>bassam s.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Size and the quality</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1699,29 +2165,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Powerful Speaker</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Skinner Desiree</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>I love this speaker it’s soooo powerful I’m in love with it , I purchased another one for a family member. Will recommend it.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Skinner Desiree</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Powerful Speaker</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1729,29 +2206,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Recomendado</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>humberto a.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>Excelente aparato para tan bajo precio, sonido espectacular y el tamaño apenas perfecto para ser trasladado de un lugar a otro y los bajos exelentes ,muy cómodo.</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>humberto a.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Recomendado</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1759,29 +2247,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Dance Rehearsals</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Candice Ozechowski</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>This speaker is loud enough to have dance rehearsals on a large production stage.</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Candice Ozechowski</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Dance Rehearsals</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1789,29 +2288,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>45</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>the color on the picture is the same color when delivered</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>This JBL speaker is amazing! I love JBL speakers! The color came just like the picture, it is so pretty!</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>the color on the picture is the same color when delivered</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1819,29 +2329,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Betty Maronsky</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>El Bluetooth muy bueno escucho mi música</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Betty Maronsky</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Excelente</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -1849,29 +2370,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>47</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GREAT sound @ GREAT PRICE</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Jennifer Hicks</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>I've always loved JBL speakers. It's got a powerful sound backed up with a great amplifier. Better than Sony yet so inexpensive. I HIGHLY recommend you get JBL. You won't be disappointed!</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Jennifer Hicks</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GREAT sound @ GREAT PRICE</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>5 people found this helpful</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -1879,29 +2411,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>48</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Speaker start to static</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Audrey Allison</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>This speaker worked fine for 2 Weeks. Then we started to hear static coming from the speakers. It got worse and worse.</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>This speaker worked fine for 2 Weeks. Then we started to hear static coming from the speakers. It got worse and worse.</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Audrey Allison</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Speaker start to static</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -1909,29 +2452,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>I love it</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Melissa Cannon</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>49</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>quit working but return/replacement process was awesome</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Simon Tate</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>I loved it while it lasted. One day, it started to spontaneously turn on and turn off. I plugged it in, unplugged it, turned it on, turned it off, but it would continuously give the "on" sound and then the "off" sound. Now, it will not turn on at all, plugged in or not. I never used it outside, never took it anywhere.
+Update: The manufacturer replaced it promptly.</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1939,29 +2494,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Very good speaker</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>50</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Powerful for the size</t>
+          <t>Powerful little speaker!</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Karen Anderson</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>Love this JBL speaker! It packs a punch! Best present I have bought myself in years!!</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -1969,30 +2535,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>I loved it while it lasted. One day, it started to spontaneously turn on and turn off. I plugged it in, unplugged it, turned it on, turned it off, but it would continuously give the "on" sound and then the "off" sound. Now, it will not turn on at all, plugged in or not. I never used it outside, never took it anywhere.
-Update: The manufacturer replaced it promptly.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Simon Tate</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>51</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>quit working but return/replacement process was awesome</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Melissa Cannon</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
+        <is>
+          <t>I love it</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2000,29 +2576,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Works really good</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Camacho951</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>52</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jbl flip 5</t>
+          <t>Powerful for the size</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
+        <is>
+          <t>Very good speaker</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Not a Verified Purchase</t>
         </is>
@@ -2030,89 +2617,122 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Love this JBL speaker! It packs a punch! Best present I have bought myself in years!!</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Karen Anderson</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>53</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Powerful little speaker!</t>
+          <t>Great speakers with good bass</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Marissa Stamps</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Not a Verified Purchase</t>
+          <t>I love the bass of these speakers. I use this at home, but more importantly I use this during dance rehearsals and it fills the entire studio just fine, oftentimes better than the speakers the dance studio provides. I also have used this while showering and on the beach and there's been no damage whatsoever.</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Verified Purchase</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Great sound and excellent battery life.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Paper</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>54</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Boom boom</t>
+          <t>Jbl flip 5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Camacho951</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Verified Purchase</t>
+          <t>Works really good</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Not a Verified Purchase</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>I love the bass of these speakers. I use this at home, but more importantly I use this during dance rehearsals and it fills the entire studio just fine, oftentimes better than the speakers the dance studio provides. I also have used this while showering and on the beach and there's been no damage whatsoever.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Marissa Stamps</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>55</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Great speakers with good bass</t>
+          <t>Boom boom</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2 people found this helpful</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
+        <is>
+          <t>Great sound and excellent battery life.</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2120,29 +2740,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>56</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Small JBL Speaker</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>When I ordered this speaker, I thought it was a larger speaker like one of my friends has. When I looked at it online it sure looked like it!!! I was surprised when it came in and it was so small. Also for the price I thought it was the bigger speaker.</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
         <v>3</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>When I ordered this speaker, I thought it was a larger speaker like one of my friends has. When I looked at it online it sure looked like it!!! I was surprised when it came in and it was so small. Also for the price I thought it was the bigger speaker.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Harry</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Small JBL Speaker</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2150,29 +2781,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>57</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Works great, fast shipping</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>This works great out of the box with great sound. Fast shipping</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
         <v>4</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>This works great out of the box with great sound. Fast shipping</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Works great, fast shipping</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2180,9 +2822,27 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>58</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Stopped working in less than a year</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Jots</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>I originally gave this speaker 5 stars. It died in less than a year. Made a fizzy static sound for about 2 weeks and then stopped working. I was happy that it was still under warranty. I contacted the company, Harman. They agreed to replace it and sent an email with a dead link that was supposed to lead to a UPS return label. I contacted customer support TWICE about the UPS label. Apparently customer support can’t send you an email with the link to the UPS label. You have to wait for the automated email to send it to you and hope that it will send a link that actually works. I figured I would never receive a new automated email but it did arrive a few days later. The link worked that time. I sent off my defunct speaker. A week or so later I received an email saying they had received it. A few days later I received another email saying my replacement speaker was being shipped and it would be delivered on Friday! It’s now Friday. No speaker. I tracked the order. Now it says that the shipping label is incorrect and they can’t ship it until they get the correct information. I’m back to thinking that I will never get my replacement. I will update if I do.
 Update:
@@ -2190,22 +2850,15 @@
 So while Harman offers a warranty, it might take a load of patience and maybe a touch of snarkiness to get a defective speaker replaced. Good luck if your new speaker ever breaks while under warranty.</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Jots</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Stopped working in less than a year</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>4 people found this helpful</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2213,29 +2866,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>59</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Good Sounds</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>rachel</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>Does not come with wall adapter.</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>rachel</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Good Sounds</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="n">
+        <v>5</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2243,29 +2907,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>60</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Only lasts about 6 hours on full blast</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Genocide_dragon</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Definitely doesn't last the advertised time does after like 6 hours haven't timed it tho</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
         <v>4</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Definitely doesn't last the advertised time does after like 6 hours haven't timed it tho</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Genocide_dragon</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Only lasts about 6 hours on full blast</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2273,29 +2948,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LOVE this speaker! Great sound, pairable to multiple speakers (same brand) for surround sound! Not as heavy as some smaller ones I've tried, yet not worried if I bump it either.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Lori Mangus</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>61</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Bluetooth Speakers</t>
+          <t>Great Sound</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Bobby D</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
+        <is>
+          <t>I had been shopping around for a new speaker for a while, and finally pulled the trigger on this. I am very pleased with my decision. Easy to charge, and super easy to pair. The battery life is great, and the sound is very good. I am very happy with the loudness this can get to. I also am able to place this in my bike water cradle for when I take longer rides with friends, so we can listen to music. I may even buy a second one, as I see that you can pair them both and have surround sound!</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>3 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2303,29 +2989,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>I didn't expect the case to come with the renewed product, which is cool. I think whomever returned the product probably never even opened it, as it was in a sealed box. JBL Flips are great bluetooth speakers. We got our money's worth out of the last one, and I expect this will be the same.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Darla S.</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>62</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Good product</t>
+          <t>SOUNDS Great!</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2 people found this helpful</t>
+          <t>Kimberly S McCarthy</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
+        <is>
+          <t>This has been the best speaker for my daughter at school. She uses it in her apartment and when out with friends. Connects easily with her playlists through her phone.</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2333,29 +3030,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>I had been shopping around for a new speaker for a while, and finally pulled the trigger on this. I am very pleased with my decision. Easy to charge, and super easy to pair. The battery life is great, and the sound is very good. I am very happy with the loudness this can get to. I also am able to place this in my bike water cradle for when I take longer rides with friends, so we can listen to music. I may even buy a second one, as I see that you can pair them both and have surround sound!</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Bobby D</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>63</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Great Sound</t>
+          <t>Bluetooth Speakers</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3 people found this helpful</t>
+          <t>Lori Mangus</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
+        <is>
+          <t>LOVE this speaker! Great sound, pairable to multiple speakers (same brand) for surround sound! Not as heavy as some smaller ones I've tried, yet not worried if I bump it either.</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2363,29 +3071,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>This has been the best speaker for my daughter at school. She uses it in her apartment and when out with friends. Connects easily with her playlists through her phone.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Kimberly S McCarthy</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>64</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SOUNDS Great!</t>
+          <t>Good product</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Darla S.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
+        <is>
+          <t>I didn't expect the case to come with the renewed product, which is cool. I think whomever returned the product probably never even opened it, as it was in a sealed box. JBL Flips are great bluetooth speakers. We got our money's worth out of the last one, and I expect this will be the same.</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2393,29 +3112,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JBL always the leader in quality products. Nothing much to say, other than it’s a solid piece of gear.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Jroq</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>65</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Great sound!</t>
+          <t>Perfect size, great sound, reasonably priced</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Leslie B</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
+        <is>
+          <t>This speaker is a must have for patio parties, kayak trips or just jamming around the house. Quality of sound is good and the speaker is just the right size to be portable.</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2423,29 +3153,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>I love listening to music on this speaker! I can take it anywhere and the sound is good.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>dembones7</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>66</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>JBL Bluetooth Speaker</t>
+          <t>Great brand</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Amazon Customer</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
+        <is>
+          <t>Great sound, love the color</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2453,29 +3194,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>This speaker is a must have for patio parties, kayak trips or just jamming around the house. Quality of sound is good and the speaker is just the right size to be portable.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Leslie B</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>67</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Perfect size, great sound, reasonably priced</t>
+          <t>Great sound!</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2 people found this helpful</t>
+          <t>Jroq</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
+        <is>
+          <t>JBL always the leader in quality products. Nothing much to say, other than it’s a solid piece of gear.</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2483,29 +3235,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>I love how clear and loud the speaker is and the fact that you can pair it with another speaker.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>68</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Awesome sound quality</t>
+          <t>JBL Bluetooth Speaker</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>dembones7</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>I love listening to music on this speaker! I can take it anywhere and the sound is good.</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2513,29 +3276,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Great sound, love the color</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>69</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Great brand</t>
+          <t>Great little speaker</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
+        <is>
+          <t>The flip5 is great! It charges quickly and stays charged for hours. I was surprised at how good the sound was especially when I turned it up. This is my second one, and I will continue to buy jbl.</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2543,29 +3317,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Greatest speaker on the market for the price.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Gavin stamper</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>70</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Works absolutely amazing sounds quality is superb</t>
+          <t>Awesome sound quality</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
+        <is>
+          <t>I love how clear and loud the speaker is and the fact that you can pair it with another speaker.</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2573,29 +3358,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>This speaker is loud and clear.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Chris A Longo</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>71</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Awesome clean sound</t>
+          <t>Dissatisfied</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
+        <is>
+          <t>I purchased this speaker in hopes that it would last through my shift. Unfortunately it only works for 6hrs. I am LIVID!!! I wish I could return it but I trustingly threw the box away. Smh aside from the short battery life it sounds good.</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2603,29 +3399,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The flip5 is great! It charges quickly and stays charged for hours. I was surprised at how good the sound was especially when I turned it up. This is my second one, and I will continue to buy jbl.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Christina</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>72</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Great little speaker</t>
+          <t>Big sound in a small package</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Rusty</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
+        <is>
+          <t>Finally upgraded my portable bluetooth speaker after having had the same one for 5 years. The difference in sound is incredible. I spent a good deal more on this one ($20 vs $90), so some of the difference should be a given, but the sound quality and depth is a huge step up. I have a 2 year old, so the advertised durability is a plus as well. I don't plan on torture testing the device, but will update this post if it doesn't perform up to snuff. Also satisfied with the connectivity range thus far. Very happy with my purchase.</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>4 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2633,29 +3440,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>This is the third one we have purchased and we cannot say enough about it. My kids have the 4 and we bought the 5 for my Father in Law for Father's Day. He loves it!!</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Wendy D.</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>73</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>GREAT SPEAKER!!</t>
+          <t>Works absolutely amazing sounds quality is superb</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Gavin stamper</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
+        <is>
+          <t>Greatest speaker on the market for the price.</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2663,29 +3481,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>I love these speakers. I have 2 of them. It is cool that you can sync multiples and make it really surround sound.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Firestar</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>74</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Quality buy for your money</t>
+          <t>Great price for prime day!</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Rhonda</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
+        <is>
+          <t>We had 1st generation of this speaker. Finally died. Last a very long time.
+So for prime day... we couldn't pass on the price. This is a very good sounding speaker.</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2693,29 +3523,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Better price and newer model at kohls</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Violet K Crosby</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>75</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Jbl</t>
+          <t>Awesome clean sound</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Chris A Longo</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
+        <is>
+          <t>This speaker is loud and clear.</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>5</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2727,25 +3568,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>I purchased this speaker in hopes that it would last through my shift. Unfortunately it only works for 6hrs. I am LIVID!!! I wish I could return it but I trustingly threw the box away. Smh aside from the short battery life it sounds good.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Jasmine</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>76</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>GREAT SPEAKER!!</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Wendy D.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
+        <is>
+          <t>This is the third one we have purchased and we cannot say enough about it. My kids have the 4 and we bought the 5 for my Father in Law for Father's Day. He loves it!!</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2753,29 +3605,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Purchased as a gift. Recipient seems satisfied with sound but does not hear very well to start with. So I think it’s the volume vs the tonal quality. The only complaint recipient seems to have is the struggle with pairing with iPhones which can be finicky at times.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Circa 1777</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>77</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sometimes stubborn about pairing with iPhone</t>
+          <t>Quality buy for your money</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Firestar</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
+        <is>
+          <t>I love these speakers. I have 2 of them. It is cool that you can sync multiples and make it really surround sound.</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2783,29 +3646,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Finally upgraded my portable bluetooth speaker after having had the same one for 5 years. The difference in sound is incredible. I spent a good deal more on this one ($20 vs $90), so some of the difference should be a given, but the sound quality and depth is a huge step up. I have a 2 year old, so the advertised durability is a plus as well. I don't plan on torture testing the device, but will update this post if it doesn't perform up to snuff. Also satisfied with the connectivity range thus far. Very happy with my purchase.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Rusty</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>78</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Big sound in a small package</t>
+          <t>Jbl</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4 people found this helpful</t>
+          <t>Violet K Crosby</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
+        <is>
+          <t>Better price and newer model at kohls</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2813,30 +3687,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>We had 1st generation of this speaker. Finally died. Last a very long time.
-So for prime day... we couldn't pass on the price. This is a very good sounding speaker.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Rhonda</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>79</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Great price for prime day!</t>
+          <t>Sometimes stubborn about pairing with iPhone</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Circa 1777</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
+        <is>
+          <t>Purchased as a gift. Recipient seems satisfied with sound but does not hear very well to start with. So I think it’s the volume vs the tonal quality. The only complaint recipient seems to have is the struggle with pairing with iPhones which can be finicky at times.</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2844,29 +3728,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>This speaker is amazing for the price and it connected very easily to my phone! I would definitely recommend getting the app that it suggests since you can name your speaker :-)</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>80</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Came charged and unopened!!</t>
+          <t>Great product</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Sim W.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
+        <is>
+          <t>Purchased as a gift, the person loves it.</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2874,29 +3769,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Got this for travel and it’s better than we thought. Easy to travel with and great sound for size</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Mw97</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>81</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Great speaker!</t>
+          <t>Speaker</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Lu Savage</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
+        <is>
+          <t>Soooo loud and keeps a charge for quite a while.</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2904,29 +3810,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Love it</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Redecorating without leaving home</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>82</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Great soeaker</t>
+          <t>Calidad JBL lo mejor</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>James L Certuche</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
+        <is>
+          <t>Me encanta el sonido es realmente puro</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2934,29 +3851,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Purchased as a gift, the person loves it.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Sim W.</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>83</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Great product</t>
+          <t>Came charged and unopened!!</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Amazon Customer</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
+        <is>
+          <t>This speaker is amazing for the price and it connected very easily to my phone! I would definitely recommend getting the app that it suggests since you can name your speaker :-)</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>5</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2964,29 +3892,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Soooo loud and keeps a charge for quite a while.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Lu Savage</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>84</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Speaker</t>
+          <t>Great speaker!</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Mw97</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
+        <is>
+          <t>Got this for travel and it’s better than we thought. Easy to travel with and great sound for size</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2994,29 +3933,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Me encanta el sonido es realmente puro</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>James L Certuche</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>85</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Calidad JBL lo mejor</t>
+          <t>Rápido y buen producto</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Exelente parlante buen sonido y cumple con lo expuesto en la publicación</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
+        <is>
+          <t>Llegó antes de lo esperado, cumpliendo todas las normas de calidad y presentación.. recomendado 100%</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3024,29 +3974,40 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JBL does it again! Perfect speaker for golf, outdoors, small gatherings, etc. great sound and you can pair it to other JBL speakers.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>momof2</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>86</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Great little speaker</t>
+          <t>Great soeaker</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>One person found this helpful</t>
+          <t>Redecorating without leaving home</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
+        <is>
+          <t>Love it</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3054,29 +4015,40 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Llegó antes de lo esperado, cumpliendo todas las normas de calidad y presentación.. recomendado 100%</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Exelente parlante buen sonido y cumple con lo expuesto en la publicación</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>87</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Rápido y buen producto</t>
+          <t>Boat Speaker</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Taylor Williams</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
+        <is>
+          <t>Perfect water resistant speaker for the boat! We bought a strap to attach to the center console. Sound quality is great and it doesn’t need to be charged too often.</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3084,29 +4056,40 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Perfect water resistant speaker for the boat! We bought a strap to attach to the center console. Sound quality is great and it doesn’t need to be charged too often.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Taylor Williams</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>88</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Boat Speaker</t>
+          <t>You can't go wrong with JBL</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>K. Plante</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>This is a powerful little speaker!! Sound is fantastic, battery life is hours long, connectivity is a breeze. JBL is definately the brand to get.</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3114,29 +4097,40 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>This is a powerful little speaker!! Sound is fantastic, battery life is hours long, connectivity is a breeze. JBL is definately the brand to get.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>K. Plante</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>89</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>You can't go wrong with JBL</t>
+          <t>Great little speaker</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
+          <t>momof2</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>JBL does it again! Perfect speaker for golf, outdoors, small gatherings, etc. great sound and you can pair it to other JBL speakers.</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3144,29 +4138,40 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>90</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>Good</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="n">
+        <v>5</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3174,29 +4179,40 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Is loud and I love it</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Mayra Hayes</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>91</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Amazing</t>
+          <t>Bocinas</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>leidy medina</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>5</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3204,29 +4220,40 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>So happy. I received this very quickly.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>92</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>Top Tier speaker</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Karen Griffiths</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
+        <is>
+          <t>This speaker works well.</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>5</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3234,29 +4261,40 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Just what the doctor ordered. Right size nd great sound.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Kerry A. Owen</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>93</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Perfect</t>
+          <t>Great sound</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Deanna Paradise</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
+        <is>
+          <t>Easy set up</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>5</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3264,29 +4302,40 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Excellent</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>leidy medina</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>94</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Bocinas</t>
+          <t>Amazing</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Mayra Hayes</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
+        <is>
+          <t>Is loud and I love it</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>5</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3294,29 +4343,41 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>This speaker works well.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Karen Griffiths</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>95</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Top Tier speaker</t>
+          <t>JBL portable speaker</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Customer</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
+        <is>
+          <t>Not satisfied. The volume has to be turned up to %50 just to hear the audio at a descent level
+%90 percent volume just to enjoy</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3324,29 +4385,40 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Easy set up</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Deanna Paradise</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>96</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Great sound</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Bigfish</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
+        <is>
+          <t>Nice speaker</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>5</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3354,29 +4426,40 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Did what it was bought for</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>ZACHARY TEEM</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>97</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Good product</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Jana</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
+        <is>
+          <t>So happy. I received this very quickly.</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3388,26 +4471,36 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Not satisfied. The volume has to be turned up to %50 just to hear the audio at a descent level
-%90 percent volume just to enjoy</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Customer</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>98</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>JBL portable speaker</t>
+          <t>beautiful color loud sound</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Smoon</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
+        <is>
+          <t>Did great for a night out at the softball fields with dirt and dust being kicked up and being tossed around in a roller bag. Not sure how loud it can get, we only had it loud enough for our dugout to hear. But its a good little speaker for the price.</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>5</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3415,29 +4508,40 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Nice speaker</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Bigfish</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>99</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Very good</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0 helpful votes</t>
+          <t>Armando Velasquez</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
+        <is>
+          <t>Very good</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>5</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>0 helpful votes</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3445,29 +4549,40 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Did great for a night out at the softball fields with dirt and dust being kicked up and being tossed around in a roller bag. Not sure how loud it can get, we only had it loud enough for our dugout to hear. But its a good little speaker for the price.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Smoon</t>
-        </is>
+          <t>Amazon2</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>100</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>beautiful color loud sound</t>
+          <t>Good, not great. Better speakers out there for cheaper</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>Spencer C</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>There’s no bass in Flip speakers. Plus, you can get a Soundcore Motion Boom with MUCHHH more bass for half the price. Also, JBL speakers always have an issue staying connected to Bluetooth especially when partyboost is on. Very Frustrating.</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>3</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
